--- a/biology/Botanique/Ipomoea_obscura/Ipomoea_obscura.xlsx
+++ b/biology/Botanique/Ipomoea_obscura/Ipomoea_obscura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ipomoea obscura est une espèce de plantes dicotylédones de la famille des Convolvulaceae, tribu des Ipomoeeae, originaire des régions tropicales de l'Ancien Monde.
 C'est une plante herbacée annuelle ou vivace, aux tiges minces volubiles pouvant atteindre 3 mètres de long, et aux fleurs à corolle en forme d'entonnoir, jaune, orange, crème ou blanche au centre souvent pourpre foncé.
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (2 novembre 2019)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (2 novembre 2019) :
 Synonymes
 Convolvulus obscurus L.
 Convolvulus trichocalyx Schumach. &amp; Thonn.
@@ -524,9 +541,43 @@
 Ipomoea fragilis Choisy
 Ipomoea insuavis Blume
 Ipomoea kentrocarpa Hochst. ex A. Rich.
-Ipomoea obscura var. fragilis (Choisy) A. Meeuse
-Liste des variétés
-Selon World Checklist of Selected Plant Families (WCSP)  (2 novembre 2019)[2] :
+Ipomoea obscura var. fragilis (Choisy) A. Meeuse</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ipomoea_obscura</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ipomoea_obscura</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (2 novembre 2019) :
 Ipomoea obscura var. demissa (Hallier f.) Verdc. (1978)
 Ipomoea obscura var. obscura
 Ipomoea obscura var. sagittifolia Verdc. (1958)</t>
